--- a/Code/Results/Cases/Case_4_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_123/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.37819131870861</v>
+        <v>10.77061114262485</v>
       </c>
       <c r="C2">
-        <v>7.47124529949004</v>
+        <v>6.491500113558428</v>
       </c>
       <c r="D2">
-        <v>10.84570520483876</v>
+        <v>14.70524273902173</v>
       </c>
       <c r="E2">
-        <v>10.84279465251479</v>
+        <v>15.88420249830786</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.113500129604307</v>
+        <v>3.686658768494158</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.39941905817966</v>
+        <v>25.59891293014886</v>
       </c>
       <c r="J2">
-        <v>5.347090052310793</v>
+        <v>9.270518408496395</v>
       </c>
       <c r="K2">
-        <v>11.15976778077426</v>
+        <v>11.39595195844102</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.55575802569525</v>
+        <v>17.39578954905783</v>
       </c>
       <c r="N2">
-        <v>13.45259293050974</v>
+        <v>20.85964984281771</v>
       </c>
       <c r="O2">
-        <v>18.89186920017804</v>
+        <v>28.74842398291112</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.54716177661807</v>
+        <v>10.55808891684096</v>
       </c>
       <c r="C3">
-        <v>6.960125543564151</v>
+        <v>6.362660701826678</v>
       </c>
       <c r="D3">
-        <v>10.49817160609901</v>
+        <v>14.67935236086104</v>
       </c>
       <c r="E3">
-        <v>10.59734604450417</v>
+        <v>15.88285012322617</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.118666672469705</v>
+        <v>3.688631850424942</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.47796261182218</v>
+        <v>25.67605024841424</v>
       </c>
       <c r="J3">
-        <v>5.358710203387498</v>
+        <v>9.287631143554622</v>
       </c>
       <c r="K3">
-        <v>10.44343226234419</v>
+        <v>11.26544493208846</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.09000438999247</v>
+        <v>17.34965333848378</v>
       </c>
       <c r="N3">
-        <v>13.6602164657834</v>
+        <v>20.92121885688772</v>
       </c>
       <c r="O3">
-        <v>18.83123355138548</v>
+        <v>28.81534326509517</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.00696150560331</v>
+        <v>10.42760511742554</v>
       </c>
       <c r="C4">
-        <v>6.628281976006731</v>
+        <v>6.283582718600288</v>
       </c>
       <c r="D4">
-        <v>10.2854785403413</v>
+        <v>14.66637632591465</v>
       </c>
       <c r="E4">
-        <v>10.45025061406249</v>
+        <v>15.88488431456742</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.121940000938678</v>
+        <v>3.68990823961268</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.53696298577575</v>
+        <v>25.72760975483686</v>
       </c>
       <c r="J4">
-        <v>5.367693683077409</v>
+        <v>9.299024161221709</v>
       </c>
       <c r="K4">
-        <v>9.97874926418209</v>
+        <v>11.18669920640082</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.80074075528047</v>
+        <v>17.32425271090301</v>
       </c>
       <c r="N4">
-        <v>13.79057420255111</v>
+        <v>20.96079056794346</v>
       </c>
       <c r="O4">
-        <v>18.80745701204618</v>
+        <v>28.86165273010802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.7792525443951</v>
+        <v>10.37450951454562</v>
       </c>
       <c r="C5">
-        <v>6.48848999505727</v>
+        <v>6.251411100493143</v>
       </c>
       <c r="D5">
-        <v>10.19910078551787</v>
+        <v>14.66182711587859</v>
       </c>
       <c r="E5">
-        <v>10.39127567340598</v>
+        <v>15.88643484845703</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.123299886562112</v>
+        <v>3.690444751818001</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.56361450229778</v>
+        <v>25.74967531040014</v>
       </c>
       <c r="J5">
-        <v>5.371810629851768</v>
+        <v>9.303889968323602</v>
       </c>
       <c r="K5">
-        <v>9.783125030056649</v>
+        <v>11.15499334916076</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.68221043773058</v>
+        <v>17.31464543964606</v>
       </c>
       <c r="N5">
-        <v>13.84444123598947</v>
+        <v>20.97736224682296</v>
       </c>
       <c r="O5">
-        <v>18.80104464607583</v>
+        <v>28.88183538166786</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.7409830220304</v>
+        <v>10.36569997135456</v>
       </c>
       <c r="C6">
-        <v>6.465001086421732</v>
+        <v>6.24607360096266</v>
       </c>
       <c r="D6">
-        <v>10.1847794153963</v>
+        <v>14.6611164450693</v>
       </c>
       <c r="E6">
-        <v>10.3815430932445</v>
+        <v>15.88673592612539</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.123527279683523</v>
+        <v>3.69053482967709</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.56819461990758</v>
+        <v>25.75340295582404</v>
       </c>
       <c r="J6">
-        <v>5.372521541943472</v>
+        <v>9.304711413998721</v>
       </c>
       <c r="K6">
-        <v>9.750263300693506</v>
+        <v>11.14975280102374</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.66249452912518</v>
+        <v>17.31309528666443</v>
       </c>
       <c r="N6">
-        <v>13.85343145034303</v>
+        <v>20.98014092967426</v>
       </c>
       <c r="O6">
-        <v>18.80017462904002</v>
+        <v>28.88526583645242</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.00392126184594</v>
+        <v>10.42688863563172</v>
       </c>
       <c r="C7">
-        <v>6.626415211694583</v>
+        <v>6.283148563999238</v>
       </c>
       <c r="D7">
-        <v>10.28431225371522</v>
+        <v>14.66631197790363</v>
       </c>
       <c r="E7">
-        <v>10.4494512614036</v>
+        <v>15.88490230250134</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.12195823491437</v>
+        <v>3.689915408840617</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.53731198706129</v>
+        <v>25.72790306940205</v>
       </c>
       <c r="J7">
-        <v>5.367747370290632</v>
+        <v>9.299088879591871</v>
       </c>
       <c r="K7">
-        <v>9.976136375422156</v>
+        <v>11.18627001078926</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.79914461618832</v>
+        <v>17.32412012312328</v>
       </c>
       <c r="N7">
-        <v>13.79129762645701</v>
+        <v>20.96101225233042</v>
       </c>
       <c r="O7">
-        <v>18.80735740742856</v>
+        <v>28.86191961381764</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.09784094947514</v>
+        <v>10.69737749977981</v>
       </c>
       <c r="C8">
-        <v>7.298729734763255</v>
+        <v>6.447097247976798</v>
       </c>
       <c r="D8">
-        <v>10.72580250793365</v>
+        <v>14.69571221224784</v>
       </c>
       <c r="E8">
-        <v>10.75745045951241</v>
+        <v>15.8831425134159</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.115260930404144</v>
+        <v>3.687325646272862</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.42420294153525</v>
+        <v>25.6246383997355</v>
       </c>
       <c r="J8">
-        <v>5.350707646816771</v>
+        <v>9.27623524890018</v>
       </c>
       <c r="K8">
-        <v>10.91792278419441</v>
+        <v>11.35068670382924</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.3959480643266</v>
+        <v>17.37927900945259</v>
       </c>
       <c r="N8">
-        <v>13.52359814773869</v>
+        <v>20.88051264975856</v>
       </c>
       <c r="O8">
-        <v>18.8681064675271</v>
+        <v>28.77041324201818</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.00743482473061</v>
+        <v>11.22459534427381</v>
       </c>
       <c r="C9">
-        <v>8.475744040965699</v>
+        <v>6.766879830721533</v>
       </c>
       <c r="D9">
-        <v>11.59212372924551</v>
+        <v>14.77633271334669</v>
       </c>
       <c r="E9">
-        <v>11.38747837998577</v>
+        <v>15.90235302431451</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.102902268776174</v>
+        <v>3.682759809550784</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.29257338070616</v>
+        <v>25.4554680369247</v>
       </c>
       <c r="J9">
-        <v>5.332367680565288</v>
+        <v>9.238432327675218</v>
       </c>
       <c r="K9">
-        <v>12.56853075946597</v>
+        <v>11.682536965946</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.53341062073262</v>
+        <v>17.51030930889708</v>
       </c>
       <c r="N9">
-        <v>13.02041159733151</v>
+        <v>20.73662242164059</v>
       </c>
       <c r="O9">
-        <v>19.09860639808691</v>
+        <v>28.63246274100099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.26969843473884</v>
+        <v>11.60579532029983</v>
       </c>
       <c r="C10">
-        <v>9.256500713975599</v>
+        <v>6.998253648597574</v>
       </c>
       <c r="D10">
-        <v>12.22302275593804</v>
+        <v>14.8492513654799</v>
       </c>
       <c r="E10">
-        <v>11.86287201036404</v>
+        <v>15.93017404639568</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.094254804756634</v>
+        <v>3.679714554305359</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.25751583435701</v>
+        <v>25.35153995807725</v>
       </c>
       <c r="J10">
-        <v>5.328665462703549</v>
+        <v>9.214913628249882</v>
       </c>
       <c r="K10">
-        <v>13.66330395704206</v>
+        <v>11.92997593181438</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.34127032205648</v>
+        <v>17.6199922373697</v>
       </c>
       <c r="N10">
-        <v>12.66244981072962</v>
+        <v>20.63933715189208</v>
       </c>
       <c r="O10">
-        <v>19.34196188200592</v>
+        <v>28.55649372242025</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.81403532143982</v>
+        <v>11.77705087358459</v>
       </c>
       <c r="C11">
-        <v>9.593946432643666</v>
+        <v>7.102237929015372</v>
       </c>
       <c r="D11">
-        <v>12.50778515096228</v>
+        <v>14.88531704323526</v>
       </c>
       <c r="E11">
-        <v>12.08120765896214</v>
+        <v>15.9457770229039</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.090405384423164</v>
+        <v>3.678395645801857</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.25646089808743</v>
+        <v>25.30869031997323</v>
       </c>
       <c r="J11">
-        <v>5.329235888711689</v>
+        <v>9.205134022248968</v>
       </c>
       <c r="K11">
-        <v>14.13619449036024</v>
+        <v>12.04288067508407</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.70145077104958</v>
+        <v>17.67267878938313</v>
       </c>
       <c r="N11">
-        <v>12.50179067287684</v>
+        <v>20.59689207500574</v>
       </c>
       <c r="O11">
-        <v>19.46998449722208</v>
+        <v>28.52746084600884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.01592078916864</v>
+        <v>11.8415268972568</v>
       </c>
       <c r="C12">
-        <v>9.719221839538651</v>
+        <v>7.141392908160552</v>
       </c>
       <c r="D12">
-        <v>12.61522439304077</v>
+        <v>14.89938283321135</v>
       </c>
       <c r="E12">
-        <v>12.16413580870969</v>
+        <v>15.95210610032186</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.088959018823356</v>
+        <v>3.677905703932997</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.25833176861221</v>
+        <v>25.29310171082483</v>
       </c>
       <c r="J12">
-        <v>5.329787577019703</v>
+        <v>9.201562573158988</v>
       </c>
       <c r="K12">
-        <v>14.31169403641511</v>
+        <v>12.08564703776934</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.83670408290587</v>
+        <v>17.69301978640468</v>
       </c>
       <c r="N12">
-        <v>12.44123550827195</v>
+        <v>20.58107823612577</v>
       </c>
       <c r="O12">
-        <v>19.52105096757314</v>
+        <v>28.5172624313935</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97262899473152</v>
+        <v>11.82765849200858</v>
       </c>
       <c r="C13">
-        <v>9.692352412540096</v>
+        <v>7.13297063797035</v>
       </c>
       <c r="D13">
-        <v>12.59210398509785</v>
+        <v>14.89633547446198</v>
       </c>
       <c r="E13">
-        <v>12.14626539204755</v>
+        <v>15.9507243702212</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.08927002915463</v>
+        <v>3.678010799904951</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.25782578166783</v>
+        <v>25.29643062425275</v>
       </c>
       <c r="J13">
-        <v>5.32965364357799</v>
+        <v>9.202325888216279</v>
       </c>
       <c r="K13">
-        <v>14.27405535019901</v>
+        <v>12.07643660369118</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.80762673796554</v>
+        <v>17.68862184563243</v>
       </c>
       <c r="N13">
-        <v>12.45426506488761</v>
+        <v>20.58447251996415</v>
       </c>
       <c r="O13">
-        <v>19.50993631949593</v>
+        <v>28.51942343775868</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83072928976616</v>
+        <v>11.78236322361724</v>
       </c>
       <c r="C14">
-        <v>9.604302939002531</v>
+        <v>7.105463890222002</v>
       </c>
       <c r="D14">
-        <v>12.51663251326609</v>
+        <v>14.88646610353049</v>
       </c>
       <c r="E14">
-        <v>12.08802547684135</v>
+        <v>15.94628931073093</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.090286168849209</v>
+        <v>3.678355147860677</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.25656856467256</v>
+        <v>25.30739505177108</v>
       </c>
       <c r="J14">
-        <v>5.329274481414664</v>
+        <v>9.204837555725105</v>
       </c>
       <c r="K14">
-        <v>14.15070432999961</v>
+        <v>12.04639906626149</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.71260141312882</v>
+        <v>17.67434451292008</v>
       </c>
       <c r="N14">
-        <v>12.49680327257221</v>
+        <v>20.59558587297139</v>
       </c>
       <c r="O14">
-        <v>19.47413337400493</v>
+        <v>28.52660586355725</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.74326064272441</v>
+        <v>11.75456789933381</v>
       </c>
       <c r="C15">
-        <v>9.550044724508435</v>
+        <v>7.088585229846424</v>
       </c>
       <c r="D15">
-        <v>12.47035078619032</v>
+        <v>14.88047378876439</v>
       </c>
       <c r="E15">
-        <v>12.05238292650018</v>
+        <v>15.94362737788894</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.09091003402976</v>
+        <v>3.678567306735232</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.25609803046889</v>
+        <v>25.31419414355547</v>
       </c>
       <c r="J15">
-        <v>5.329086298128478</v>
+        <v>9.206393189750534</v>
       </c>
       <c r="K15">
-        <v>14.07468408112773</v>
+        <v>12.02800063752552</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.6542450018219</v>
+        <v>17.66564963618427</v>
       </c>
       <c r="N15">
-        <v>12.5228950703595</v>
+        <v>20.60242684277285</v>
       </c>
       <c r="O15">
-        <v>19.45254277029263</v>
+        <v>28.53110896047985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.23352806809844</v>
+        <v>11.59455437846076</v>
       </c>
       <c r="C16">
-        <v>9.234094628103222</v>
+        <v>6.991429099987374</v>
       </c>
       <c r="D16">
-        <v>12.20436139127414</v>
+        <v>14.84695198625894</v>
       </c>
       <c r="E16">
-        <v>11.84864069707138</v>
+        <v>15.9292133906714</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.094508003327674</v>
+        <v>3.679802080044858</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.25789538893467</v>
+        <v>25.35442945925737</v>
       </c>
       <c r="J16">
-        <v>5.328674521707867</v>
+        <v>9.215571218921674</v>
       </c>
       <c r="K16">
-        <v>13.63189711230335</v>
+        <v>11.92260102391969</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.31757661837544</v>
+        <v>17.61660423186033</v>
       </c>
       <c r="N16">
-        <v>12.67299055665396</v>
+        <v>20.64214737005008</v>
       </c>
       <c r="O16">
-        <v>19.33395213215523</v>
+        <v>28.55850238108416</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91320923468986</v>
+        <v>11.49579209332221</v>
       </c>
       <c r="C17">
-        <v>9.035758295909753</v>
+        <v>6.93147340323343</v>
       </c>
       <c r="D17">
-        <v>12.04055733442796</v>
+        <v>14.82712349118994</v>
       </c>
       <c r="E17">
-        <v>11.72414641821872</v>
+        <v>15.9211235116958</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.096736290415899</v>
+        <v>3.680576544757186</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.26290296071506</v>
+        <v>25.38024723710289</v>
       </c>
       <c r="J17">
-        <v>5.329007374306132</v>
+        <v>9.221436850729262</v>
       </c>
       <c r="K17">
-        <v>13.35385286186839</v>
+        <v>11.85800279946569</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.10909998416106</v>
+        <v>17.58722326153373</v>
       </c>
       <c r="N17">
-        <v>12.7656063690075</v>
+        <v>20.66697750957139</v>
       </c>
       <c r="O17">
-        <v>19.26570611325828</v>
+        <v>28.57672349392385</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.72615524562998</v>
+        <v>11.43878752233678</v>
       </c>
       <c r="C18">
-        <v>8.920009636108352</v>
+        <v>6.896871244390998</v>
       </c>
       <c r="D18">
-        <v>11.94613463116848</v>
+        <v>14.81599161868997</v>
       </c>
       <c r="E18">
-        <v>11.65273870921402</v>
+        <v>15.9167480324867</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.098025933137235</v>
+        <v>3.681028248428774</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.267177052422</v>
+        <v>25.39551364958826</v>
       </c>
       <c r="J18">
-        <v>5.329410319598324</v>
+        <v>9.224897141491088</v>
       </c>
       <c r="K18">
-        <v>13.19156147188466</v>
+        <v>11.82088215844858</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.98850496692404</v>
+        <v>17.5705875601764</v>
       </c>
       <c r="N18">
-        <v>12.81908359945867</v>
+        <v>20.68142962831726</v>
       </c>
       <c r="O18">
-        <v>19.22807737159777</v>
+        <v>28.58772385764421</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.66233691710479</v>
+        <v>11.41945459722866</v>
       </c>
       <c r="C19">
-        <v>8.880530945286031</v>
+        <v>6.885136644351367</v>
       </c>
       <c r="D19">
-        <v>11.91413158485694</v>
+        <v>14.81226966495821</v>
       </c>
       <c r="E19">
-        <v>11.62859690778408</v>
+        <v>15.91531434158266</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.098463980105157</v>
+        <v>3.681182262768833</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.26885971797201</v>
+        <v>25.40075413658258</v>
       </c>
       <c r="J19">
-        <v>5.329582733109022</v>
+        <v>9.226083607982423</v>
       </c>
       <c r="K19">
-        <v>13.13620460001276</v>
+        <v>11.80832083747136</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.94755886694174</v>
+        <v>17.56500059199192</v>
       </c>
       <c r="N19">
-        <v>12.83722653412208</v>
+        <v>20.68635218274589</v>
       </c>
       <c r="O19">
-        <v>19.21561295406797</v>
+        <v>28.59153767622191</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.94759869522626</v>
+        <v>11.5063265976864</v>
       </c>
       <c r="C20">
-        <v>9.057044173604258</v>
+        <v>6.937868213037603</v>
       </c>
       <c r="D20">
-        <v>12.05801653608606</v>
+        <v>14.82920607305788</v>
       </c>
       <c r="E20">
-        <v>11.73737891932873</v>
+        <v>15.92195598420468</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.096498264078677</v>
+        <v>3.680493454945054</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.26222471428017</v>
+        <v>25.37745575599091</v>
       </c>
       <c r="J20">
-        <v>5.328949970859266</v>
+        <v>9.220803490381863</v>
       </c>
       <c r="K20">
-        <v>13.38369591968802</v>
+        <v>11.8648760895445</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.13136422905361</v>
+        <v>17.59032373188511</v>
       </c>
       <c r="N20">
-        <v>12.75572604231668</v>
+        <v>20.66431666325444</v>
       </c>
       <c r="O20">
-        <v>19.27280217317283</v>
+        <v>28.57472999233349</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.8725233998266</v>
+        <v>11.7956782108856</v>
       </c>
       <c r="C21">
-        <v>9.630232935051151</v>
+        <v>7.113549603900241</v>
       </c>
       <c r="D21">
-        <v>12.53881152838112</v>
+        <v>14.88935395477656</v>
       </c>
       <c r="E21">
-        <v>12.10512555491966</v>
+        <v>15.94758060843056</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.089987403262294</v>
+        <v>3.678253747060921</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.25687517978115</v>
+        <v>25.30415722171804</v>
       </c>
       <c r="J21">
-        <v>5.32937664635617</v>
+        <v>9.204096241429136</v>
       </c>
       <c r="K21">
-        <v>14.18703217548948</v>
+        <v>12.05522179559163</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.74054418326561</v>
+        <v>17.67852762942654</v>
       </c>
       <c r="N21">
-        <v>12.48430134150741</v>
+        <v>20.59231458658747</v>
       </c>
       <c r="O21">
-        <v>19.4845785981721</v>
+        <v>28.5244746079581</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.45230903767078</v>
+        <v>11.98257455888454</v>
       </c>
       <c r="C22">
-        <v>9.990246865519355</v>
+        <v>7.227059308316973</v>
       </c>
       <c r="D22">
-        <v>12.85071653358415</v>
+        <v>14.93104116232994</v>
       </c>
       <c r="E22">
-        <v>12.34690289725319</v>
+        <v>15.96677744325813</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.085797786288277</v>
+        <v>3.676845321076147</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.26667445611255</v>
+        <v>25.25996932435109</v>
       </c>
       <c r="J22">
-        <v>5.3316177937813</v>
+        <v>9.193945619309519</v>
       </c>
       <c r="K22">
-        <v>14.69124862753936</v>
+        <v>12.17967549328548</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.13200938016341</v>
+        <v>17.73843993749352</v>
       </c>
       <c r="N22">
-        <v>12.30854354791429</v>
+        <v>20.54676730041547</v>
       </c>
       <c r="O22">
-        <v>19.63810916427193</v>
+        <v>28.49626816340663</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.14510922281401</v>
+        <v>11.88304729205734</v>
       </c>
       <c r="C23">
-        <v>9.799422420003166</v>
+        <v>7.166609083962743</v>
       </c>
       <c r="D23">
-        <v>12.6844803241473</v>
+        <v>14.90857710604522</v>
       </c>
       <c r="E23">
-        <v>12.21774542634315</v>
+        <v>15.95630873844797</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.088028140170962</v>
+        <v>3.677591975237402</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.26018442871852</v>
+        <v>25.28321284393868</v>
       </c>
       <c r="J23">
-        <v>5.330238179045297</v>
+        <v>9.199292976195585</v>
       </c>
       <c r="K23">
-        <v>14.42402900044367</v>
+        <v>12.11325971587443</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.92371176540768</v>
+        <v>17.70626025283234</v>
       </c>
       <c r="N23">
-        <v>12.4022098008103</v>
+        <v>20.57093893630454</v>
       </c>
       <c r="O23">
-        <v>19.55475209347434</v>
+        <v>28.51089775049242</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.93206025202248</v>
+        <v>11.50156464352786</v>
       </c>
       <c r="C24">
-        <v>9.047426196442139</v>
+        <v>6.934977530250974</v>
       </c>
       <c r="D24">
-        <v>12.05012400273065</v>
+        <v>14.82826370307467</v>
       </c>
       <c r="E24">
-        <v>11.73139598560144</v>
+        <v>15.92157876499574</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.096605849029741</v>
+        <v>3.680530999743237</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.26252701355466</v>
+        <v>25.37871646569392</v>
       </c>
       <c r="J24">
-        <v>5.328975264783222</v>
+        <v>9.221089558268988</v>
       </c>
       <c r="K24">
-        <v>13.37021147639158</v>
+        <v>11.86176861695924</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.12130085906426</v>
+        <v>17.58892121153596</v>
       </c>
       <c r="N24">
-        <v>12.76019221570068</v>
+        <v>20.66551908060568</v>
       </c>
       <c r="O24">
-        <v>19.26958904700036</v>
+        <v>28.57562961973041</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.51576568284235</v>
+        <v>11.08275631221313</v>
       </c>
       <c r="C25">
-        <v>8.172244500997696</v>
+        <v>6.680821286693933</v>
       </c>
       <c r="D25">
-        <v>11.35835231678104</v>
+        <v>14.75209411726344</v>
       </c>
       <c r="E25">
-        <v>11.21460747066694</v>
+        <v>15.89473979440726</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.106166655534708</v>
+        <v>3.683940443767583</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.31785310007162</v>
+        <v>25.49766036363654</v>
       </c>
       <c r="J25">
-        <v>5.335656458642051</v>
+        <v>9.247910315052914</v>
       </c>
       <c r="K25">
-        <v>12.1428477497392</v>
+        <v>11.59197183895828</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.23008844324393</v>
+        <v>17.47246597872063</v>
       </c>
       <c r="N25">
-        <v>13.15436071194038</v>
+        <v>20.77406187925678</v>
       </c>
       <c r="O25">
-        <v>19.02368372376994</v>
+        <v>28.66533014962067</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_123/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.77061114262485</v>
+        <v>12.37819131870864</v>
       </c>
       <c r="C2">
-        <v>6.491500113558428</v>
+        <v>7.47124529949002</v>
       </c>
       <c r="D2">
-        <v>14.70524273902173</v>
+        <v>10.84570520483884</v>
       </c>
       <c r="E2">
-        <v>15.88420249830786</v>
+        <v>10.84279465251492</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.686658768494158</v>
+        <v>2.113500129604306</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.59891293014886</v>
+        <v>16.39941905817965</v>
       </c>
       <c r="J2">
-        <v>9.270518408496395</v>
+        <v>5.347090052310852</v>
       </c>
       <c r="K2">
-        <v>11.39595195844102</v>
+        <v>11.1597677807743</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.39578954905783</v>
+        <v>12.55575802569529</v>
       </c>
       <c r="N2">
-        <v>20.85964984281771</v>
+        <v>13.45259293050974</v>
       </c>
       <c r="O2">
-        <v>28.74842398291112</v>
+        <v>18.891869200178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.55808891684096</v>
+        <v>11.54716177661808</v>
       </c>
       <c r="C3">
-        <v>6.362660701826678</v>
+        <v>6.960125543564183</v>
       </c>
       <c r="D3">
-        <v>14.67935236086104</v>
+        <v>10.49817160609906</v>
       </c>
       <c r="E3">
-        <v>15.88285012322617</v>
+        <v>10.59734604450416</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.688631850424942</v>
+        <v>2.118666672469706</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.67605024841424</v>
+        <v>16.47796261182214</v>
       </c>
       <c r="J3">
-        <v>9.287631143554622</v>
+        <v>5.358710203387465</v>
       </c>
       <c r="K3">
-        <v>11.26544493208846</v>
+        <v>10.44343226234423</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.34965333848378</v>
+        <v>12.09000438999245</v>
       </c>
       <c r="N3">
-        <v>20.92121885688772</v>
+        <v>13.6602164657834</v>
       </c>
       <c r="O3">
-        <v>28.81534326509517</v>
+        <v>18.83123355138544</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.42760511742554</v>
+        <v>11.00696150560325</v>
       </c>
       <c r="C4">
-        <v>6.283582718600288</v>
+        <v>6.628281976006783</v>
       </c>
       <c r="D4">
-        <v>14.66637632591465</v>
+        <v>10.28547854034142</v>
       </c>
       <c r="E4">
-        <v>15.88488431456742</v>
+        <v>10.45025061406254</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.68990823961268</v>
+        <v>2.121940000938811</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.72760975483686</v>
+        <v>16.53696298577589</v>
       </c>
       <c r="J4">
-        <v>9.299024161221709</v>
+        <v>5.36769368307741</v>
       </c>
       <c r="K4">
-        <v>11.18669920640082</v>
+        <v>9.978749264182049</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.32425271090301</v>
+        <v>11.80074075528051</v>
       </c>
       <c r="N4">
-        <v>20.96079056794346</v>
+        <v>13.79057420255115</v>
       </c>
       <c r="O4">
-        <v>28.86165273010802</v>
+        <v>18.80745701204631</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.37450951454562</v>
+        <v>10.77925254439515</v>
       </c>
       <c r="C5">
-        <v>6.251411100493143</v>
+        <v>6.488489995057237</v>
       </c>
       <c r="D5">
-        <v>14.66182711587859</v>
+        <v>10.19910078551778</v>
       </c>
       <c r="E5">
-        <v>15.88643484845703</v>
+        <v>10.39127567340584</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.690444751818001</v>
+        <v>2.123299886562113</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.74967531040014</v>
+        <v>16.56361450229783</v>
       </c>
       <c r="J5">
-        <v>9.303889968323602</v>
+        <v>5.371810629851713</v>
       </c>
       <c r="K5">
-        <v>11.15499334916076</v>
+        <v>9.783125030056633</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.31464543964606</v>
+        <v>11.68221043773052</v>
       </c>
       <c r="N5">
-        <v>20.97736224682296</v>
+        <v>13.84444123598951</v>
       </c>
       <c r="O5">
-        <v>28.88183538166786</v>
+        <v>18.80104464607587</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.36569997135456</v>
+        <v>10.74098302203038</v>
       </c>
       <c r="C6">
-        <v>6.24607360096266</v>
+        <v>6.465001086421715</v>
       </c>
       <c r="D6">
-        <v>14.6611164450693</v>
+        <v>10.18477941539633</v>
       </c>
       <c r="E6">
-        <v>15.88673592612539</v>
+        <v>10.38154309324451</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.69053482967709</v>
+        <v>2.123527279683525</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.75340295582404</v>
+        <v>16.56819461990759</v>
       </c>
       <c r="J6">
-        <v>9.304711413998721</v>
+        <v>5.372521541943419</v>
       </c>
       <c r="K6">
-        <v>11.14975280102374</v>
+        <v>9.750263300693469</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.31309528666443</v>
+        <v>11.66249452912521</v>
       </c>
       <c r="N6">
-        <v>20.98014092967426</v>
+        <v>13.853431450343</v>
       </c>
       <c r="O6">
-        <v>28.88526583645242</v>
+        <v>18.80017462904003</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.42688863563172</v>
+        <v>11.00392126184597</v>
       </c>
       <c r="C7">
-        <v>6.283148563999238</v>
+        <v>6.626415211694633</v>
       </c>
       <c r="D7">
-        <v>14.66631197790363</v>
+        <v>10.2843122537152</v>
       </c>
       <c r="E7">
-        <v>15.88490230250134</v>
+        <v>10.44945126140366</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.689915408840617</v>
+        <v>2.12195823491437</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.72790306940205</v>
+        <v>16.53731198706116</v>
       </c>
       <c r="J7">
-        <v>9.299088879591871</v>
+        <v>5.36774737029069</v>
       </c>
       <c r="K7">
-        <v>11.18627001078926</v>
+        <v>9.976136375422179</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.32412012312328</v>
+        <v>11.79914461618831</v>
       </c>
       <c r="N7">
-        <v>20.96101225233042</v>
+        <v>13.79129762645691</v>
       </c>
       <c r="O7">
-        <v>28.86191961381764</v>
+        <v>18.80735740742838</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.69737749977981</v>
+        <v>12.09784094947516</v>
       </c>
       <c r="C8">
-        <v>6.447097247976798</v>
+        <v>7.298729734763191</v>
       </c>
       <c r="D8">
-        <v>14.69571221224784</v>
+        <v>10.72580250793361</v>
       </c>
       <c r="E8">
-        <v>15.8831425134159</v>
+        <v>10.75745045951244</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.687325646272862</v>
+        <v>2.115260930404143</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.6246383997355</v>
+        <v>16.42420294153535</v>
       </c>
       <c r="J8">
-        <v>9.27623524890018</v>
+        <v>5.350707646816833</v>
       </c>
       <c r="K8">
-        <v>11.35068670382924</v>
+        <v>10.91792278419441</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.37927900945259</v>
+        <v>12.39594806432661</v>
       </c>
       <c r="N8">
-        <v>20.88051264975856</v>
+        <v>13.52359814773879</v>
       </c>
       <c r="O8">
-        <v>28.77041324201818</v>
+        <v>18.86810646752718</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.22459534427381</v>
+        <v>14.00743482473058</v>
       </c>
       <c r="C9">
-        <v>6.766879830721533</v>
+        <v>8.475744040965839</v>
       </c>
       <c r="D9">
-        <v>14.77633271334669</v>
+        <v>11.59212372924561</v>
       </c>
       <c r="E9">
-        <v>15.90235302431451</v>
+        <v>11.3874783799858</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.682759809550784</v>
+        <v>2.102902268776173</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.4554680369247</v>
+        <v>16.29257338070618</v>
       </c>
       <c r="J9">
-        <v>9.238432327675218</v>
+        <v>5.332367680565238</v>
       </c>
       <c r="K9">
-        <v>11.682536965946</v>
+        <v>12.56853075946597</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.51030930889708</v>
+        <v>13.53341062073263</v>
       </c>
       <c r="N9">
-        <v>20.73662242164059</v>
+        <v>13.02041159733148</v>
       </c>
       <c r="O9">
-        <v>28.63246274100099</v>
+        <v>19.09860639808689</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.60579532029983</v>
+        <v>15.26969843473881</v>
       </c>
       <c r="C10">
-        <v>6.998253648597574</v>
+        <v>9.256500713975671</v>
       </c>
       <c r="D10">
-        <v>14.8492513654799</v>
+        <v>12.22302275593803</v>
       </c>
       <c r="E10">
-        <v>15.93017404639568</v>
+        <v>11.86287201036403</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.679714554305359</v>
+        <v>2.094254804756635</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.35153995807725</v>
+        <v>16.25751583435704</v>
       </c>
       <c r="J10">
-        <v>9.214913628249882</v>
+        <v>5.328665462703555</v>
       </c>
       <c r="K10">
-        <v>11.92997593181438</v>
+        <v>13.66330395704207</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.6199922373697</v>
+        <v>14.34127032205646</v>
       </c>
       <c r="N10">
-        <v>20.63933715189208</v>
+        <v>12.66244981072959</v>
       </c>
       <c r="O10">
-        <v>28.55649372242025</v>
+        <v>19.34196188200588</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.77705087358459</v>
+        <v>15.81403532143979</v>
       </c>
       <c r="C11">
-        <v>7.102237929015372</v>
+        <v>9.593946432643628</v>
       </c>
       <c r="D11">
-        <v>14.88531704323526</v>
+        <v>12.5077851509623</v>
       </c>
       <c r="E11">
-        <v>15.9457770229039</v>
+        <v>12.08120765896213</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.678395645801857</v>
+        <v>2.090405384423164</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.30869031997323</v>
+        <v>16.25646089808759</v>
       </c>
       <c r="J11">
-        <v>9.205134022248968</v>
+        <v>5.329235888711693</v>
       </c>
       <c r="K11">
-        <v>12.04288067508407</v>
+        <v>14.13619449036023</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.67267878938313</v>
+        <v>14.70145077104958</v>
       </c>
       <c r="N11">
-        <v>20.59689207500574</v>
+        <v>12.50179067287691</v>
       </c>
       <c r="O11">
-        <v>28.52746084600884</v>
+        <v>19.46998449722219</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.8415268972568</v>
+        <v>16.0159207891686</v>
       </c>
       <c r="C12">
-        <v>7.141392908160552</v>
+        <v>9.719221839538694</v>
       </c>
       <c r="D12">
-        <v>14.89938283321135</v>
+        <v>12.61522439304086</v>
       </c>
       <c r="E12">
-        <v>15.95210610032186</v>
+        <v>12.16413580870971</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.677905703932997</v>
+        <v>2.08895901882349</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.29310171082483</v>
+        <v>16.25833176861223</v>
       </c>
       <c r="J12">
-        <v>9.201562573158988</v>
+        <v>5.32978757701967</v>
       </c>
       <c r="K12">
-        <v>12.08564703776934</v>
+        <v>14.31169403641511</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.69301978640468</v>
+        <v>14.83670408290588</v>
       </c>
       <c r="N12">
-        <v>20.58107823612577</v>
+        <v>12.44123550827189</v>
       </c>
       <c r="O12">
-        <v>28.5172624313935</v>
+        <v>19.52105096757316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.82765849200858</v>
+        <v>15.97262899473153</v>
       </c>
       <c r="C13">
-        <v>7.13297063797035</v>
+        <v>9.69235241254016</v>
       </c>
       <c r="D13">
-        <v>14.89633547446198</v>
+        <v>12.59210398509784</v>
       </c>
       <c r="E13">
-        <v>15.9507243702212</v>
+        <v>12.1462653920476</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.678010799904951</v>
+        <v>2.08927002915463</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.29643062425275</v>
+        <v>16.25782578166783</v>
       </c>
       <c r="J13">
-        <v>9.202325888216279</v>
+        <v>5.329653643578093</v>
       </c>
       <c r="K13">
-        <v>12.07643660369118</v>
+        <v>14.27405535019904</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.68862184563243</v>
+        <v>14.80762673796554</v>
       </c>
       <c r="N13">
-        <v>20.58447251996415</v>
+        <v>12.45426506488761</v>
       </c>
       <c r="O13">
-        <v>28.51942343775868</v>
+        <v>19.5099363194959</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.78236322361724</v>
+        <v>15.83072928976618</v>
       </c>
       <c r="C14">
-        <v>7.105463890222002</v>
+        <v>9.604302939002475</v>
       </c>
       <c r="D14">
-        <v>14.88646610353049</v>
+        <v>12.51663251326609</v>
       </c>
       <c r="E14">
-        <v>15.94628931073093</v>
+        <v>12.08802547684137</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.678355147860677</v>
+        <v>2.090286168849208</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.30739505177108</v>
+        <v>16.25656856467261</v>
       </c>
       <c r="J14">
-        <v>9.204837555725105</v>
+        <v>5.32927448141469</v>
       </c>
       <c r="K14">
-        <v>12.04639906626149</v>
+        <v>14.15070432999958</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.67434451292008</v>
+        <v>14.71260141312881</v>
       </c>
       <c r="N14">
-        <v>20.59558587297139</v>
+        <v>12.49680327257228</v>
       </c>
       <c r="O14">
-        <v>28.52660586355725</v>
+        <v>19.47413337400498</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.75456789933381</v>
+        <v>15.74326064272445</v>
       </c>
       <c r="C15">
-        <v>7.088585229846424</v>
+        <v>9.550044724508501</v>
       </c>
       <c r="D15">
-        <v>14.88047378876439</v>
+        <v>12.47035078619028</v>
       </c>
       <c r="E15">
-        <v>15.94362737788894</v>
+        <v>12.05238292650017</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.678567306735232</v>
+        <v>2.090910034029759</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.31419414355547</v>
+        <v>16.2560980304688</v>
       </c>
       <c r="J15">
-        <v>9.206393189750534</v>
+        <v>5.329086298128509</v>
       </c>
       <c r="K15">
-        <v>12.02800063752552</v>
+        <v>14.07468408112778</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.66564963618427</v>
+        <v>14.65424500182189</v>
       </c>
       <c r="N15">
-        <v>20.60242684277285</v>
+        <v>12.5228950703594</v>
       </c>
       <c r="O15">
-        <v>28.53110896047985</v>
+        <v>19.4525427702925</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.59455437846076</v>
+        <v>15.2335280680985</v>
       </c>
       <c r="C16">
-        <v>6.991429099987374</v>
+        <v>9.234094628103103</v>
       </c>
       <c r="D16">
-        <v>14.84695198625894</v>
+        <v>12.20436139127416</v>
       </c>
       <c r="E16">
-        <v>15.9292133906714</v>
+        <v>11.84864069707138</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.679802080044858</v>
+        <v>2.094508003327674</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.35442945925737</v>
+        <v>16.25789538893473</v>
       </c>
       <c r="J16">
-        <v>9.215571218921674</v>
+        <v>5.328674521707896</v>
       </c>
       <c r="K16">
-        <v>11.92260102391969</v>
+        <v>13.63189711230337</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.61660423186033</v>
+        <v>14.31757661837541</v>
       </c>
       <c r="N16">
-        <v>20.64214737005008</v>
+        <v>12.6729905566541</v>
       </c>
       <c r="O16">
-        <v>28.55850238108416</v>
+        <v>19.33395213215529</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.49579209332221</v>
+        <v>14.91320923468997</v>
       </c>
       <c r="C17">
-        <v>6.93147340323343</v>
+        <v>9.035758295909647</v>
       </c>
       <c r="D17">
-        <v>14.82712349118994</v>
+        <v>12.04055733442791</v>
       </c>
       <c r="E17">
-        <v>15.9211235116958</v>
+        <v>11.72414641821875</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.680576544757186</v>
+        <v>2.096736290415765</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.38024723710289</v>
+        <v>16.2629029607148</v>
       </c>
       <c r="J17">
-        <v>9.221436850729262</v>
+        <v>5.329007374306196</v>
       </c>
       <c r="K17">
-        <v>11.85800279946569</v>
+        <v>13.35385286186848</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.58722326153373</v>
+        <v>14.10909998416105</v>
       </c>
       <c r="N17">
-        <v>20.66697750957139</v>
+        <v>12.7656063690074</v>
       </c>
       <c r="O17">
-        <v>28.57672349392385</v>
+        <v>19.26570611325812</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.43878752233678</v>
+        <v>14.72615524562997</v>
       </c>
       <c r="C18">
-        <v>6.896871244390998</v>
+        <v>8.920009636108352</v>
       </c>
       <c r="D18">
-        <v>14.81599161868997</v>
+        <v>11.94613463116852</v>
       </c>
       <c r="E18">
-        <v>15.9167480324867</v>
+        <v>11.65273870921408</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.681028248428774</v>
+        <v>2.098025933137368</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.39551364958826</v>
+        <v>16.26717705242196</v>
       </c>
       <c r="J18">
-        <v>9.224897141491088</v>
+        <v>5.329410319598346</v>
       </c>
       <c r="K18">
-        <v>11.82088215844858</v>
+        <v>13.19156147188467</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.5705875601764</v>
+        <v>13.98850496692404</v>
       </c>
       <c r="N18">
-        <v>20.68142962831726</v>
+        <v>12.81908359945867</v>
       </c>
       <c r="O18">
-        <v>28.58772385764421</v>
+        <v>19.2280773715977</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.41945459722866</v>
+        <v>14.66233691710484</v>
       </c>
       <c r="C19">
-        <v>6.885136644351367</v>
+        <v>8.880530945285971</v>
       </c>
       <c r="D19">
-        <v>14.81226966495821</v>
+        <v>11.91413158485699</v>
       </c>
       <c r="E19">
-        <v>15.91531434158266</v>
+        <v>11.62859690778406</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.681182262768833</v>
+        <v>2.098463980105157</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.40075413658258</v>
+        <v>16.26885971797202</v>
       </c>
       <c r="J19">
-        <v>9.226083607982423</v>
+        <v>5.329582733108936</v>
       </c>
       <c r="K19">
-        <v>11.80832083747136</v>
+        <v>13.13620460001276</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.56500059199192</v>
+        <v>13.94755886694173</v>
       </c>
       <c r="N19">
-        <v>20.68635218274589</v>
+        <v>12.83722653412211</v>
       </c>
       <c r="O19">
-        <v>28.59153767622191</v>
+        <v>19.215612954068</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.5063265976864</v>
+        <v>14.9475986952262</v>
       </c>
       <c r="C20">
-        <v>6.937868213037603</v>
+        <v>9.057044173604295</v>
       </c>
       <c r="D20">
-        <v>14.82920607305788</v>
+        <v>12.05801653608614</v>
       </c>
       <c r="E20">
-        <v>15.92195598420468</v>
+        <v>11.73737891932876</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.680493454945054</v>
+        <v>2.096498264078946</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.37745575599091</v>
+        <v>16.26222471428023</v>
       </c>
       <c r="J20">
-        <v>9.220803490381863</v>
+        <v>5.328949970859241</v>
       </c>
       <c r="K20">
-        <v>11.8648760895445</v>
+        <v>13.38369591968802</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.59032373188511</v>
+        <v>14.13136422905361</v>
       </c>
       <c r="N20">
-        <v>20.66431666325444</v>
+        <v>12.75572604231672</v>
       </c>
       <c r="O20">
-        <v>28.57472999233349</v>
+        <v>19.27280217317285</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.7956782108856</v>
+        <v>15.87252339982663</v>
       </c>
       <c r="C21">
-        <v>7.113549603900241</v>
+        <v>9.630232935051151</v>
       </c>
       <c r="D21">
-        <v>14.88935395477656</v>
+        <v>12.53881152838117</v>
       </c>
       <c r="E21">
-        <v>15.94758060843056</v>
+        <v>12.10512555491972</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.678253747060921</v>
+        <v>2.089987403262295</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.30415722171804</v>
+        <v>16.25687517978108</v>
       </c>
       <c r="J21">
-        <v>9.204096241429136</v>
+        <v>5.329376646356114</v>
       </c>
       <c r="K21">
-        <v>12.05522179559163</v>
+        <v>14.18703217548952</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.67852762942654</v>
+        <v>14.7405441832656</v>
       </c>
       <c r="N21">
-        <v>20.59231458658747</v>
+        <v>12.48430134150735</v>
       </c>
       <c r="O21">
-        <v>28.5244746079581</v>
+        <v>19.48457859817198</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.98257455888454</v>
+        <v>16.45230903767076</v>
       </c>
       <c r="C22">
-        <v>7.227059308316973</v>
+        <v>9.990246865519289</v>
       </c>
       <c r="D22">
-        <v>14.93104116232994</v>
+        <v>12.85071653358417</v>
       </c>
       <c r="E22">
-        <v>15.96677744325813</v>
+        <v>12.34690289725322</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.676845321076147</v>
+        <v>2.085797786288142</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.25996932435109</v>
+        <v>16.26667445611265</v>
       </c>
       <c r="J22">
-        <v>9.193945619309519</v>
+        <v>5.331617793781299</v>
       </c>
       <c r="K22">
-        <v>12.17967549328548</v>
+        <v>14.69124862753935</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.73843993749352</v>
+        <v>15.13200938016343</v>
       </c>
       <c r="N22">
-        <v>20.54676730041547</v>
+        <v>12.30854354791433</v>
       </c>
       <c r="O22">
-        <v>28.49626816340663</v>
+        <v>19.63810916427202</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.88304729205734</v>
+        <v>16.145109222814</v>
       </c>
       <c r="C23">
-        <v>7.166609083962743</v>
+        <v>9.799422420003207</v>
       </c>
       <c r="D23">
-        <v>14.90857710604522</v>
+        <v>12.68448032414727</v>
       </c>
       <c r="E23">
-        <v>15.95630873844797</v>
+        <v>12.21774542634314</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.677591975237402</v>
+        <v>2.088028140170695</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.28321284393868</v>
+        <v>16.26018442871851</v>
       </c>
       <c r="J23">
-        <v>9.199292976195585</v>
+        <v>5.33023817904527</v>
       </c>
       <c r="K23">
-        <v>12.11325971587443</v>
+        <v>14.42402900044369</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.70626025283234</v>
+        <v>14.92371176540767</v>
       </c>
       <c r="N23">
-        <v>20.57093893630454</v>
+        <v>12.4022098008103</v>
       </c>
       <c r="O23">
-        <v>28.51089775049242</v>
+        <v>19.55475209347431</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.50156464352786</v>
+        <v>14.93206025202239</v>
       </c>
       <c r="C24">
-        <v>6.934977530250974</v>
+        <v>9.047426196442112</v>
       </c>
       <c r="D24">
-        <v>14.82826370307467</v>
+        <v>12.0501240027307</v>
       </c>
       <c r="E24">
-        <v>15.92157876499574</v>
+        <v>11.73139598560144</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.680530999743237</v>
+        <v>2.096605849029741</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.37871646569392</v>
+        <v>16.26252701355493</v>
       </c>
       <c r="J24">
-        <v>9.221089558268988</v>
+        <v>5.328975264783196</v>
       </c>
       <c r="K24">
-        <v>11.86176861695924</v>
+        <v>13.37021147639151</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.58892121153596</v>
+        <v>14.12130085906429</v>
       </c>
       <c r="N24">
-        <v>20.66551908060568</v>
+        <v>12.76019221570081</v>
       </c>
       <c r="O24">
-        <v>28.57562961973041</v>
+        <v>19.26958904700061</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.08275631221313</v>
+        <v>13.51576568284238</v>
       </c>
       <c r="C25">
-        <v>6.680821286693933</v>
+        <v>8.17224450099768</v>
       </c>
       <c r="D25">
-        <v>14.75209411726344</v>
+        <v>11.35835231678099</v>
       </c>
       <c r="E25">
-        <v>15.89473979440726</v>
+        <v>11.21460747066692</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.683940443767583</v>
+        <v>2.106166655534709</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.49766036363654</v>
+        <v>16.31785310007155</v>
       </c>
       <c r="J25">
-        <v>9.247910315052914</v>
+        <v>5.335656458642083</v>
       </c>
       <c r="K25">
-        <v>11.59197183895828</v>
+        <v>12.14284774973924</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.47246597872063</v>
+        <v>13.23008844324392</v>
       </c>
       <c r="N25">
-        <v>20.77406187925678</v>
+        <v>13.15436071194031</v>
       </c>
       <c r="O25">
-        <v>28.66533014962067</v>
+        <v>19.02368372376989</v>
       </c>
     </row>
   </sheetData>
